--- a/Migrade_v.1.2/TEMPLATE - SF1.xlsx
+++ b/Migrade_v.1.2/TEMPLATE - SF1.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr updateLinks="always" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\ces_migrade\MiGrade\Migrade_v.1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelo\Documents\GitHub\ces_migrade\MiGrade\Migrade_v.1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{615C739C-C1D6-4791-8232-3944DE83CD13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A198B789-4B74-4B93-9C0D-324B3A0FFC33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,11 @@
     <definedName name="TRANSMUTATION_TABLE">'[1]DO NOT DELETE'!$G$2:$J$42</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="25">
   <si>
     <t>Official E-Class Record in K to 12 Curriculum</t>
   </si>
@@ -100,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">FEMALE </t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1329,13 +1331,80 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1346,77 +1415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1459,6 +1457,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2480,7 +2482,7 @@
   <dimension ref="A1:BF120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
@@ -3197,156 +3199,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
-      <c r="Z1" s="116"/>
-      <c r="AA1" s="116"/>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="116"/>
-      <c r="AD1" s="116"/>
-      <c r="AE1" s="116"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="116"/>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="116"/>
-      <c r="AJ1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="115"/>
+      <c r="AJ1" s="115"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="115"/>
     </row>
     <row r="4" spans="1:58" ht="21" customHeight="1">
       <c r="B4" s="4"/>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="113"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="109"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="113"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="109"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="6"/>
@@ -3360,46 +3362,46 @@
       <c r="AN4" s="9"/>
     </row>
     <row r="5" spans="1:58" ht="21" customHeight="1">
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="113"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="109"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="120" t="s">
+      <c r="T5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="130" t="s">
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="AE5" s="116"/>
-      <c r="AF5" s="131"/>
-      <c r="AG5" s="111"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="113"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="130"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="109"/>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
@@ -3408,94 +3410,94 @@
     </row>
     <row r="6" spans="1:58" ht="14.45" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:58" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="110" t="s">
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="99" t="s">
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="100"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="117" t="s">
+      <c r="R7" s="104"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="117"/>
+      <c r="AB7" s="118"/>
+      <c r="AC7" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="121"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="122"/>
-      <c r="AJ7" s="123"/>
+      <c r="AD7" s="104"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="104"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="117"/>
+      <c r="AI7" s="117"/>
+      <c r="AJ7" s="118"/>
     </row>
     <row r="8" spans="1:58" s="12" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A8" s="13"/>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="134" t="s">
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="126" t="s">
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="119"/>
-      <c r="AF8" s="118" t="s">
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="119"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="113"/>
       <c r="AI8" s="14" t="s">
         <v>15</v>
       </c>
@@ -3596,10 +3598,10 @@
       <c r="AH9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AI9" s="104" t="s">
+      <c r="AI9" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="AJ9" s="132" t="s">
+      <c r="AJ9" s="131" t="s">
         <v>20</v>
       </c>
       <c r="AN9" s="26"/>
@@ -3624,12 +3626,12 @@
     </row>
     <row r="10" spans="1:58" s="34" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="28"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -3659,8 +3661,8 @@
       <c r="AF10" s="33"/>
       <c r="AG10" s="31"/>
       <c r="AH10" s="32"/>
-      <c r="AI10" s="105"/>
-      <c r="AJ10" s="133"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="132"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
@@ -3683,12 +3685,12 @@
     </row>
     <row r="11" spans="1:58" s="34" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A11" s="35"/>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="109"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
@@ -4981,9 +4983,8 @@
         <f t="shared" ref="AI34:AI62" si="8">IF(ISERROR(IF($AF34="","",ROUND(SUM($R34,$AE34,$AH34),2))),"",IF($AF34="","",ROUND(SUM($R34,$AE34,$AH34),2)))</f>
         <v/>
       </c>
-      <c r="AJ34" s="67" t="str">
-        <f t="shared" ref="AJ34:AJ62" si="9">IF(ISERROR(IF($AF34="","",VLOOKUP(AI34,TRANSMUTATION_TABLE,4,TRUE))),"",IF($AF34="","",VLOOKUP(AI34,TRANSMUTATION_TABLE,4,TRUE)))</f>
-        <v/>
+      <c r="AJ34" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL34" s="3"/>
       <c r="AO34" s="1"/>
@@ -5071,9 +5072,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ35" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ35" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL35" s="3"/>
       <c r="AO35" s="1"/>
@@ -5161,9 +5161,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ36" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ36" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL36" s="3"/>
       <c r="AO36" s="1"/>
@@ -5251,9 +5250,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ37" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ37" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL37" s="3"/>
       <c r="AO37" s="1"/>
@@ -5341,9 +5339,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ38" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ38" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL38" s="3"/>
       <c r="AO38" s="1"/>
@@ -5431,9 +5428,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ39" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ39" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL39" s="3"/>
       <c r="AO39" s="1"/>
@@ -5521,9 +5517,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ40" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ40" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL40" s="3"/>
       <c r="AO40" s="1"/>
@@ -5611,9 +5606,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ41" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ41" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL41" s="3"/>
       <c r="AO41" s="1"/>
@@ -5701,9 +5695,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ42" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ42" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL42" s="3"/>
       <c r="AO42" s="1"/>
@@ -5791,9 +5784,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ43" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ43" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL43" s="3"/>
       <c r="AO43" s="1"/>
@@ -5881,9 +5873,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ44" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ44" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL44" s="3"/>
       <c r="AO44" s="1"/>
@@ -5971,9 +5962,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ45" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ45" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL45" s="3"/>
       <c r="AO45" s="1"/>
@@ -6061,9 +6051,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ46" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ46" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL46" s="3"/>
       <c r="AO46" s="1"/>
@@ -6151,9 +6140,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ47" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ47" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL47" s="3"/>
       <c r="AO47" s="1"/>
@@ -6241,9 +6229,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ48" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ48" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL48" s="3"/>
       <c r="AO48" s="1"/>
@@ -6331,9 +6318,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ49" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ49" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL49" s="3"/>
       <c r="AO49" s="1"/>
@@ -6421,9 +6407,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ50" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ50" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL50" s="3"/>
       <c r="AO50" s="1"/>
@@ -6511,9 +6496,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ51" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ51" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL51" s="3"/>
       <c r="AO51" s="1"/>
@@ -6601,9 +6585,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ52" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ52" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL52" s="3"/>
       <c r="AO52" s="1"/>
@@ -6691,9 +6674,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ53" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ53" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL53" s="3"/>
       <c r="AO53" s="1"/>
@@ -6781,9 +6763,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ54" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ54" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL54" s="3"/>
       <c r="AO54" s="1"/>
@@ -6871,9 +6852,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ55" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ55" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL55" s="3"/>
       <c r="AO55" s="1"/>
@@ -6961,9 +6941,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ56" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ56" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL56" s="3"/>
       <c r="AO56" s="1"/>
@@ -7051,9 +7030,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ57" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ57" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL57" s="3"/>
       <c r="AO57" s="1"/>
@@ -7141,9 +7119,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ58" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ58" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL58" s="3"/>
       <c r="AO58" s="1"/>
@@ -7231,9 +7208,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ59" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ59" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL59" s="3"/>
       <c r="AO59" s="1"/>
@@ -7321,9 +7297,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ60" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ60" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL60" s="3"/>
       <c r="AO60" s="1"/>
@@ -7411,9 +7386,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ61" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ61" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL61" s="3"/>
       <c r="AO61" s="1"/>
@@ -7501,9 +7475,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ62" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ62" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL62" s="3"/>
       <c r="AO62" s="1"/>
@@ -7525,12 +7498,12 @@
     </row>
     <row r="63" spans="1:56" ht="18" customHeight="1" thickBot="1">
       <c r="A63" s="35"/>
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="109"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="105"/>
       <c r="F63" s="74"/>
       <c r="G63" s="75"/>
       <c r="H63" s="75"/>
@@ -7618,9 +7591,8 @@
       <c r="AG64" s="53"/>
       <c r="AH64" s="54"/>
       <c r="AI64" s="57"/>
-      <c r="AJ64" s="58" t="str">
-        <f t="shared" ref="AJ64:AJ95" si="10">IF(ISERROR(IF($AF64="","",VLOOKUP(AI64,TRANSMUTATION_TABLE,4,TRUE))),"",IF($AF64="","",VLOOKUP(AI64,TRANSMUTATION_TABLE,4,TRUE)))</f>
-        <v/>
+      <c r="AJ64" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL64" s="3"/>
       <c r="AO64" s="1"/>
@@ -7678,9 +7650,8 @@
       <c r="AG65" s="53"/>
       <c r="AH65" s="54"/>
       <c r="AI65" s="57"/>
-      <c r="AJ65" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ65" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL65" s="3"/>
       <c r="AO65" s="1"/>
@@ -7738,9 +7709,8 @@
       <c r="AG66" s="53"/>
       <c r="AH66" s="54"/>
       <c r="AI66" s="57"/>
-      <c r="AJ66" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ66" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL66" s="3"/>
       <c r="AO66" s="1"/>
@@ -7798,9 +7768,8 @@
       <c r="AG67" s="53"/>
       <c r="AH67" s="54"/>
       <c r="AI67" s="57"/>
-      <c r="AJ67" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ67" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL67" s="3"/>
       <c r="AO67" s="1"/>
@@ -7858,9 +7827,8 @@
       <c r="AG68" s="53"/>
       <c r="AH68" s="54"/>
       <c r="AI68" s="57"/>
-      <c r="AJ68" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ68" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL68" s="3"/>
       <c r="AO68" s="1"/>
@@ -7918,9 +7886,8 @@
       <c r="AG69" s="53"/>
       <c r="AH69" s="54"/>
       <c r="AI69" s="57"/>
-      <c r="AJ69" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ69" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL69" s="3"/>
       <c r="AO69" s="1"/>
@@ -7978,9 +7945,8 @@
       <c r="AG70" s="53"/>
       <c r="AH70" s="54"/>
       <c r="AI70" s="57"/>
-      <c r="AJ70" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ70" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL70" s="3"/>
       <c r="AO70" s="1"/>
@@ -8038,9 +8004,8 @@
       <c r="AG71" s="53"/>
       <c r="AH71" s="54"/>
       <c r="AI71" s="57"/>
-      <c r="AJ71" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ71" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL71" s="3"/>
       <c r="AO71" s="1"/>
@@ -8098,9 +8063,8 @@
       <c r="AG72" s="53"/>
       <c r="AH72" s="54"/>
       <c r="AI72" s="57"/>
-      <c r="AJ72" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ72" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL72" s="3"/>
       <c r="AO72" s="1"/>
@@ -8158,9 +8122,8 @@
       <c r="AG73" s="53"/>
       <c r="AH73" s="54"/>
       <c r="AI73" s="57"/>
-      <c r="AJ73" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ73" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL73" s="3"/>
       <c r="AO73" s="1"/>
@@ -8218,9 +8181,8 @@
       <c r="AG74" s="53"/>
       <c r="AH74" s="54"/>
       <c r="AI74" s="57"/>
-      <c r="AJ74" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ74" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL74" s="3"/>
       <c r="AO74" s="1"/>
@@ -8278,9 +8240,8 @@
       <c r="AG75" s="53"/>
       <c r="AH75" s="54"/>
       <c r="AI75" s="57"/>
-      <c r="AJ75" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ75" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL75" s="3"/>
       <c r="AO75" s="1"/>
@@ -8338,9 +8299,8 @@
       <c r="AG76" s="53"/>
       <c r="AH76" s="54"/>
       <c r="AI76" s="57"/>
-      <c r="AJ76" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ76" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL76" s="3"/>
       <c r="AO76" s="1"/>
@@ -8398,9 +8358,8 @@
       <c r="AG77" s="53"/>
       <c r="AH77" s="54"/>
       <c r="AI77" s="57"/>
-      <c r="AJ77" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ77" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL77" s="3"/>
       <c r="AO77" s="1"/>
@@ -8458,9 +8417,8 @@
       <c r="AG78" s="53"/>
       <c r="AH78" s="54"/>
       <c r="AI78" s="57"/>
-      <c r="AJ78" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ78" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL78" s="3"/>
       <c r="AO78" s="1"/>
@@ -8518,9 +8476,8 @@
       <c r="AG79" s="53"/>
       <c r="AH79" s="54"/>
       <c r="AI79" s="57"/>
-      <c r="AJ79" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ79" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL79" s="3"/>
       <c r="AO79" s="1"/>
@@ -8578,9 +8535,8 @@
       <c r="AG80" s="53"/>
       <c r="AH80" s="54"/>
       <c r="AI80" s="57"/>
-      <c r="AJ80" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ80" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL80" s="3"/>
       <c r="AO80" s="1"/>
@@ -8638,9 +8594,8 @@
       <c r="AG81" s="53"/>
       <c r="AH81" s="54"/>
       <c r="AI81" s="57"/>
-      <c r="AJ81" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ81" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="AL81" s="3"/>
       <c r="AO81" s="1"/>
@@ -8698,9 +8653,8 @@
       <c r="AG82" s="53"/>
       <c r="AH82" s="54"/>
       <c r="AI82" s="57"/>
-      <c r="AJ82" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ82" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL82" s="3"/>
       <c r="AO82" s="1"/>
@@ -8758,9 +8712,8 @@
       <c r="AG83" s="53"/>
       <c r="AH83" s="54"/>
       <c r="AI83" s="57"/>
-      <c r="AJ83" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ83" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL83" s="3"/>
       <c r="AO83" s="1"/>
@@ -8818,9 +8771,8 @@
       <c r="AG84" s="53"/>
       <c r="AH84" s="54"/>
       <c r="AI84" s="57"/>
-      <c r="AJ84" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ84" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL84" s="3"/>
       <c r="AO84" s="1"/>
@@ -8878,9 +8830,8 @@
       <c r="AG85" s="53"/>
       <c r="AH85" s="54"/>
       <c r="AI85" s="57"/>
-      <c r="AJ85" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ85" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL85" s="3"/>
       <c r="AO85" s="1"/>
@@ -8938,9 +8889,8 @@
       <c r="AG86" s="53"/>
       <c r="AH86" s="54"/>
       <c r="AI86" s="57"/>
-      <c r="AJ86" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ86" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL86" s="3"/>
       <c r="AO86" s="1"/>
@@ -8998,9 +8948,8 @@
       <c r="AG87" s="53"/>
       <c r="AH87" s="54"/>
       <c r="AI87" s="57"/>
-      <c r="AJ87" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ87" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL87" s="3"/>
       <c r="AO87" s="1"/>
@@ -9058,9 +9007,8 @@
       <c r="AG88" s="53"/>
       <c r="AH88" s="54"/>
       <c r="AI88" s="57"/>
-      <c r="AJ88" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ88" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL88" s="3"/>
       <c r="AO88" s="1"/>
@@ -9118,9 +9066,8 @@
       <c r="AG89" s="53"/>
       <c r="AH89" s="54"/>
       <c r="AI89" s="57"/>
-      <c r="AJ89" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ89" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL89" s="3"/>
       <c r="AO89" s="1"/>
@@ -9178,9 +9125,8 @@
       <c r="AG90" s="53"/>
       <c r="AH90" s="54"/>
       <c r="AI90" s="57"/>
-      <c r="AJ90" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ90" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL90" s="3"/>
       <c r="AO90" s="1"/>
@@ -9238,9 +9184,8 @@
       <c r="AG91" s="53"/>
       <c r="AH91" s="54"/>
       <c r="AI91" s="57"/>
-      <c r="AJ91" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ91" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL91" s="3"/>
       <c r="AO91" s="1"/>
@@ -9298,9 +9243,8 @@
       <c r="AG92" s="53"/>
       <c r="AH92" s="54"/>
       <c r="AI92" s="57"/>
-      <c r="AJ92" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ92" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL92" s="3"/>
       <c r="AO92" s="1"/>
@@ -9358,9 +9302,8 @@
       <c r="AG93" s="53"/>
       <c r="AH93" s="54"/>
       <c r="AI93" s="57"/>
-      <c r="AJ93" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ93" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL93" s="3"/>
       <c r="AO93" s="1"/>
@@ -9418,9 +9361,8 @@
       <c r="AG94" s="53"/>
       <c r="AH94" s="54"/>
       <c r="AI94" s="57"/>
-      <c r="AJ94" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ94" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL94" s="3"/>
       <c r="AO94" s="1"/>
@@ -9478,9 +9420,8 @@
       <c r="AG95" s="53"/>
       <c r="AH95" s="54"/>
       <c r="AI95" s="57"/>
-      <c r="AJ95" s="67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AJ95" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL95" s="3"/>
       <c r="AO95" s="1"/>
@@ -9538,9 +9479,8 @@
       <c r="AG96" s="53"/>
       <c r="AH96" s="54"/>
       <c r="AI96" s="57"/>
-      <c r="AJ96" s="67" t="str">
-        <f t="shared" ref="AJ96:AJ127" si="11">IF(ISERROR(IF($AF96="","",VLOOKUP(AI96,TRANSMUTATION_TABLE,4,TRUE))),"",IF($AF96="","",VLOOKUP(AI96,TRANSMUTATION_TABLE,4,TRUE)))</f>
-        <v/>
+      <c r="AJ96" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL96" s="3"/>
       <c r="AO96" s="1"/>
@@ -9598,9 +9538,8 @@
       <c r="AG97" s="53"/>
       <c r="AH97" s="54"/>
       <c r="AI97" s="57"/>
-      <c r="AJ97" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="AJ97" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL97" s="3"/>
       <c r="AO97" s="1"/>
@@ -9658,9 +9597,8 @@
       <c r="AG98" s="53"/>
       <c r="AH98" s="54"/>
       <c r="AI98" s="57"/>
-      <c r="AJ98" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="AJ98" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL98" s="3"/>
       <c r="AO98" s="1"/>
@@ -9718,9 +9656,8 @@
       <c r="AG99" s="53"/>
       <c r="AH99" s="54"/>
       <c r="AI99" s="57"/>
-      <c r="AJ99" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="AJ99" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL99" s="3"/>
       <c r="AO99" s="1"/>
@@ -9778,9 +9715,8 @@
       <c r="AG100" s="53"/>
       <c r="AH100" s="54"/>
       <c r="AI100" s="57"/>
-      <c r="AJ100" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="AJ100" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL100" s="3"/>
       <c r="AO100" s="1"/>
@@ -9822,15 +9758,15 @@
       <c r="N101" s="64"/>
       <c r="O101" s="64"/>
       <c r="P101" s="52" t="str">
-        <f t="shared" ref="P101:P113" si="12">IF(COUNT($F101:$O101)=0,"",SUM($F101:$O101))</f>
+        <f t="shared" ref="P101:P113" si="9">IF(COUNT($F101:$O101)=0,"",SUM($F101:$O101))</f>
         <v/>
       </c>
       <c r="Q101" s="53" t="str">
-        <f t="shared" ref="Q101:Q113" si="13">IF(ISERROR(IF($P101="","",ROUND(($P101/$P$10)*$Q$10,2))),"",IF($P101="","",ROUND(($P101/$P$10)*$Q$10,2)))</f>
+        <f t="shared" ref="Q101:Q113" si="10">IF(ISERROR(IF($P101="","",ROUND(($P101/$P$10)*$Q$10,2))),"",IF($P101="","",ROUND(($P101/$P$10)*$Q$10,2)))</f>
         <v/>
       </c>
       <c r="R101" s="54" t="str">
-        <f t="shared" ref="R101:R113" si="14">IF($Q101="","",ROUND($Q101*$R$10,2))</f>
+        <f t="shared" ref="R101:R113" si="11">IF($Q101="","",ROUND($Q101*$R$10,2))</f>
         <v/>
       </c>
       <c r="S101" s="65"/>
@@ -9844,33 +9780,32 @@
       <c r="AA101" s="64"/>
       <c r="AB101" s="64"/>
       <c r="AC101" s="52" t="str">
-        <f t="shared" ref="AC101:AC113" si="15">IF(COUNT($S101:$AB101)=0,"",SUM($S101:$AB101))</f>
+        <f t="shared" ref="AC101:AC113" si="12">IF(COUNT($S101:$AB101)=0,"",SUM($S101:$AB101))</f>
         <v/>
       </c>
       <c r="AD101" s="53" t="str">
-        <f t="shared" ref="AD101:AD113" si="16">IF(ISERROR(IF($AC101="","",ROUND(($AC101/$AC$10)*$AD$10,2))),"",IF($AC101="","",ROUND(($AC101/$AC$10)*$AD$10,2)))</f>
+        <f t="shared" ref="AD101:AD113" si="13">IF(ISERROR(IF($AC101="","",ROUND(($AC101/$AC$10)*$AD$10,2))),"",IF($AC101="","",ROUND(($AC101/$AC$10)*$AD$10,2)))</f>
         <v/>
       </c>
       <c r="AE101" s="54" t="str">
-        <f t="shared" ref="AE101:AE113" si="17">IF($AD101="","",ROUND($AD101*$AE$10,2))</f>
+        <f t="shared" ref="AE101:AE113" si="14">IF($AD101="","",ROUND($AD101*$AE$10,2))</f>
         <v/>
       </c>
       <c r="AF101" s="56"/>
       <c r="AG101" s="53" t="str">
-        <f t="shared" ref="AG101:AG113" si="18">IF(ISERROR(IF($AF101="","",ROUND(($AF101/$AF$10)*$AG$10,2))),"",IF($AF101="","",ROUND(($AF101/$AF$10)*$AG$10,2)))</f>
+        <f t="shared" ref="AG101:AG113" si="15">IF(ISERROR(IF($AF101="","",ROUND(($AF101/$AF$10)*$AG$10,2))),"",IF($AF101="","",ROUND(($AF101/$AF$10)*$AG$10,2)))</f>
         <v/>
       </c>
       <c r="AH101" s="54" t="str">
-        <f t="shared" ref="AH101:AH113" si="19">IF($AG101="","",ROUND($AG101*$AH$10,2))</f>
+        <f t="shared" ref="AH101:AH113" si="16">IF($AG101="","",ROUND($AG101*$AH$10,2))</f>
         <v/>
       </c>
       <c r="AI101" s="57" t="str">
-        <f t="shared" ref="AI101:AI113" si="20">IF(ISERROR(IF($AF101="","",ROUND(SUM($R101,$AE101,$AH101),2))),"",IF($AF101="","",ROUND(SUM($R101,$AE101,$AH101),2)))</f>
-        <v/>
-      </c>
-      <c r="AJ101" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" ref="AI101:AI113" si="17">IF(ISERROR(IF($AF101="","",ROUND(SUM($R101,$AE101,$AH101),2))),"",IF($AF101="","",ROUND(SUM($R101,$AE101,$AH101),2)))</f>
+        <v/>
+      </c>
+      <c r="AJ101" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL101" s="3"/>
       <c r="AO101" s="1"/>
@@ -9912,15 +9847,15 @@
       <c r="N102" s="64"/>
       <c r="O102" s="64"/>
       <c r="P102" s="52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q102" s="53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R102" s="54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S102" s="65"/>
@@ -9934,33 +9869,32 @@
       <c r="AA102" s="64"/>
       <c r="AB102" s="64"/>
       <c r="AC102" s="52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD102" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE102" s="54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF102" s="56"/>
       <c r="AG102" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH102" s="54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI102" s="57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ102" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ102" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL102" s="3"/>
       <c r="AO102" s="1"/>
@@ -10002,15 +9936,15 @@
       <c r="N103" s="64"/>
       <c r="O103" s="64"/>
       <c r="P103" s="52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q103" s="53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R103" s="54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S103" s="65"/>
@@ -10024,33 +9958,32 @@
       <c r="AA103" s="64"/>
       <c r="AB103" s="64"/>
       <c r="AC103" s="52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD103" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE103" s="54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF103" s="56"/>
       <c r="AG103" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH103" s="54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI103" s="57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ103" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ103" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL103" s="3"/>
       <c r="AO103" s="1"/>
@@ -10092,15 +10025,15 @@
       <c r="N104" s="64"/>
       <c r="O104" s="64"/>
       <c r="P104" s="52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q104" s="53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R104" s="54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S104" s="65"/>
@@ -10114,33 +10047,32 @@
       <c r="AA104" s="64"/>
       <c r="AB104" s="64"/>
       <c r="AC104" s="52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD104" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE104" s="54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF104" s="56"/>
       <c r="AG104" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH104" s="54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI104" s="57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ104" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ104" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL104" s="3"/>
       <c r="AO104" s="1"/>
@@ -10182,15 +10114,15 @@
       <c r="N105" s="64"/>
       <c r="O105" s="64"/>
       <c r="P105" s="52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q105" s="53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R105" s="54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S105" s="65"/>
@@ -10204,33 +10136,32 @@
       <c r="AA105" s="64"/>
       <c r="AB105" s="64"/>
       <c r="AC105" s="52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD105" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE105" s="54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF105" s="56"/>
       <c r="AG105" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH105" s="54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI105" s="57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ105" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ105" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL105" s="3"/>
       <c r="AO105" s="1"/>
@@ -10272,15 +10203,15 @@
       <c r="N106" s="64"/>
       <c r="O106" s="64"/>
       <c r="P106" s="52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q106" s="53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R106" s="54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S106" s="65"/>
@@ -10294,33 +10225,32 @@
       <c r="AA106" s="64"/>
       <c r="AB106" s="64"/>
       <c r="AC106" s="52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD106" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE106" s="54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF106" s="56"/>
       <c r="AG106" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH106" s="54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI106" s="57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ106" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ106" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL106" s="3"/>
       <c r="AO106" s="1"/>
@@ -10362,15 +10292,15 @@
       <c r="N107" s="64"/>
       <c r="O107" s="64"/>
       <c r="P107" s="52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q107" s="53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R107" s="54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S107" s="65"/>
@@ -10384,33 +10314,32 @@
       <c r="AA107" s="64"/>
       <c r="AB107" s="64"/>
       <c r="AC107" s="52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD107" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE107" s="54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF107" s="56"/>
       <c r="AG107" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH107" s="54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI107" s="57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ107" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ107" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL107" s="3"/>
       <c r="AO107" s="1"/>
@@ -10452,15 +10381,15 @@
       <c r="N108" s="64"/>
       <c r="O108" s="64"/>
       <c r="P108" s="52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q108" s="53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R108" s="54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S108" s="65"/>
@@ -10474,33 +10403,32 @@
       <c r="AA108" s="64"/>
       <c r="AB108" s="64"/>
       <c r="AC108" s="52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD108" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE108" s="54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF108" s="56"/>
       <c r="AG108" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH108" s="54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI108" s="57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ108" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ108" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL108" s="3"/>
       <c r="AO108" s="1"/>
@@ -10542,15 +10470,15 @@
       <c r="N109" s="64"/>
       <c r="O109" s="64"/>
       <c r="P109" s="52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q109" s="53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R109" s="54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S109" s="65"/>
@@ -10564,33 +10492,32 @@
       <c r="AA109" s="64"/>
       <c r="AB109" s="64"/>
       <c r="AC109" s="52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD109" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE109" s="54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF109" s="56"/>
       <c r="AG109" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH109" s="54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI109" s="57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ109" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ109" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL109" s="3"/>
       <c r="AO109" s="1"/>
@@ -10632,15 +10559,15 @@
       <c r="N110" s="64"/>
       <c r="O110" s="64"/>
       <c r="P110" s="52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q110" s="53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R110" s="54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S110" s="65"/>
@@ -10654,33 +10581,32 @@
       <c r="AA110" s="64"/>
       <c r="AB110" s="64"/>
       <c r="AC110" s="52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD110" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE110" s="54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF110" s="56"/>
       <c r="AG110" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH110" s="54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI110" s="57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ110" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ110" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL110" s="3"/>
       <c r="AO110" s="1"/>
@@ -10722,15 +10648,15 @@
       <c r="N111" s="64"/>
       <c r="O111" s="64"/>
       <c r="P111" s="52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q111" s="53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R111" s="54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S111" s="65"/>
@@ -10744,33 +10670,32 @@
       <c r="AA111" s="64"/>
       <c r="AB111" s="64"/>
       <c r="AC111" s="52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD111" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE111" s="54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF111" s="56"/>
       <c r="AG111" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH111" s="54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI111" s="57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ111" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ111" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AL111" s="3"/>
       <c r="AO111" s="1"/>
@@ -10812,15 +10737,15 @@
       <c r="N112" s="64"/>
       <c r="O112" s="64"/>
       <c r="P112" s="52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q112" s="53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R112" s="54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S112" s="65"/>
@@ -10834,33 +10759,32 @@
       <c r="AA112" s="64"/>
       <c r="AB112" s="64"/>
       <c r="AC112" s="52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD112" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE112" s="54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF112" s="56"/>
       <c r="AG112" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH112" s="54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI112" s="57" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ112" s="67" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ112" s="67" t="s">
+        <v>24</v>
       </c>
       <c r="AO112" s="1"/>
       <c r="AP112" s="1"/>
@@ -10901,15 +10825,15 @@
       <c r="N113" s="91"/>
       <c r="O113" s="91"/>
       <c r="P113" s="92" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q113" s="93" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R113" s="94" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S113" s="95"/>
@@ -10923,33 +10847,32 @@
       <c r="AA113" s="91"/>
       <c r="AB113" s="91"/>
       <c r="AC113" s="92" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD113" s="93" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE113" s="94" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AF113" s="96"/>
       <c r="AG113" s="93" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH113" s="94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI113" s="97" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AJ113" s="98" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AJ113" s="98" t="s">
+        <v>24</v>
       </c>
       <c r="AO113" s="1"/>
       <c r="AP113" s="1"/>
@@ -11013,6 +10936,12 @@
     <mergeCell ref="AG7:AJ7"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="A3:AJ3"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="X5:AC5"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="G5:R5"/>
     <mergeCell ref="AC7:AF7"/>
     <mergeCell ref="X4:AC4"/>
@@ -11021,14 +10950,8 @@
     <mergeCell ref="K7:P7"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="A7:E7"/>
   </mergeCells>
-  <dataValidations count="66">
+  <dataValidations xWindow="1255" yWindow="458" count="66">
     <dataValidation showErrorMessage="1" sqref="A11:XFD11 A63:XFD63" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="whole" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" error="INPUT NUMBER LESS THAN OR EQUAL THE HPS" prompt="Encode learner's raw score" sqref="AF12:AF62 AF64:AF113" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$AF$10</formula1>
